--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.012320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.012320.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2869,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3415,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3583,12 +3583,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4885,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5305,12 +5305,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5599,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6229,12 +6229,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7111,12 +7111,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7405,12 +7405,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7573,12 +7573,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7741,12 +7741,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8035,12 +8035,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8245,12 +8245,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8329,12 +8329,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8413,12 +8413,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8917,12 +8917,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9211,12 +9211,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10143,12 +10143,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12377,12 +12377,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12713,12 +12713,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13091,12 +13091,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13217,12 +13217,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13343,12 +13343,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13385,12 +13385,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13427,12 +13427,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13553,12 +13553,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13595,12 +13595,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14267,12 +14267,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14603,12 +14603,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14981,12 +14981,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15065,12 +15065,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15149,12 +15149,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15233,12 +15233,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15569,12 +15569,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15653,12 +15653,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15737,12 +15737,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15989,12 +15989,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16585,12 +16585,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16841,12 +16841,12 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17847,12 +17847,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17973,12 +17973,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18477,12 +18477,12 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18943,12 +18943,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19577,12 +19577,12 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19623,12 +19623,12 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19791,12 +19791,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20841,12 +20841,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
